--- a/Data-IN-OUT/02. Structurare TXT to XLSX/2.structured_extract.xlsx
+++ b/Data-IN-OUT/02. Structurare TXT to XLSX/2.structured_extract.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,173 +436,264 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>source_file</t>
+          <t>path</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>considered</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pdf_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>invoice_number</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>invoice_date</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>vendor_name</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>total_amount</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>error</t>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>total_without_vat</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>vat_amount</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>items_details</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>quality_score</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>validation_issues</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>invoice_number_confidence</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>invoice_date_confidence</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>vendor_name_confidence</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>items_details_confidence</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>total_amount_confidence</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>total_without_vat_confidence</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>currency_confidence</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>vat_amount_confidence</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>20535_ocr.txt</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="A2">
+        <f>HYPERLINK("C:\Users\tymyp\Desktop\Coduri-Cursor\workflow.procesare.ok\App.Simpla\Data-IN-OUT\01. Gemini OCR PDF to TXT\IN\Factura GEN 0002  10.10.2024.pdf", "Factura GEN 0002  10.10.2024.pdf")</f>
+        <v/>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Factura GEN 0002  10.10.2024_ocr</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ERROR</t>
+          <t>GEN 0002</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10.10.2024</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Expecting value: line 1 column 1 (char 0)</t>
-        </is>
+          <t>GEN OPERATIONS S.R.L.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>RON</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>['Intocmire lista cantitati - Pasaj superior peste CF Port Constanţa']</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>86.25</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Unusual date format: 10.10.2024; Could not verify totals calculation</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>10</v>
+      </c>
+      <c r="O2" t="n">
+        <v>10</v>
+      </c>
+      <c r="P2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9</v>
+      </c>
+      <c r="R2" t="n">
+        <v>10</v>
+      </c>
+      <c r="S2" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" t="n">
+        <v>10</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>21965_ocr.txt</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="A3">
+        <f>HYPERLINK("C:\Users\tymyp\Desktop\Coduri-Cursor\workflow.procesare.ok\App.Simpla\Data-IN-OUT\01. Gemini OCR PDF to TXT\IN\PTSI SI 25342.pdf", "PTSI SI 25342.pdf")</f>
+        <v/>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PTSI SI 25342_ocr</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ERROR</t>
+          <t>25342</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>July 1, 2024</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Expecting value: line 1 column 1 (char 0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Factura GEN 0002  10.10.2024_ocr.txt</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Expecting value: line 1 column 1 (char 0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HA DONE  - PTSI SI 26406_ocr.txt</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Expecting value: line 1 column 1 (char 0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>PTSI SI 25342_ocr.txt</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Expecting value: line 1 column 1 (char 0)</t>
-        </is>
+          <t>PRODUCTIVITY TECHNOLOGIES SERVICES (PTSI), INC.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2992000</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2.671,428.57</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>320571.43</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>['Legion Slim 5-14APH8 (82750043PH) 107,321 43 2146,428 57\nAMD Ryzen™ 9794CHS (807167,407520Hz, 8MB L2710MB L3)\nNMDIWD GeForce RTX 1060 8GB GDDR6, Boost Clock, 2370ΜΗΣ TOP 105W\nAMD SoC Platfonn\n18GG Suidered LPDDR5A-0400\nMemory soldered to systemboard, no slots\n16/38 soldered memory, not upgradable\nITB SSD M 22280 PCIe@ 4 0x4 NVMed', 'Workstation TS P3_Tower_W630_ES_R 121,600 436,70571\nPhilippines\nStandard Image (Prelead)\nWindows 11 Pro 64\nWindows 11 Pro 64 English\nTower 1100W 92% Adapter\n13th Generation Intel® Core™ 19-13900 vPro® Processor (E-cores up to 4.20 GHz P-cores up to 5.20 GHz)', 'Eaton 5A 2200I-NEMA 2200VA 1200W 9.553.57 38.214 29\nSpecs\nGNEMA Universal Socket\nLine Interactive | with AVR\nCircuit Breaker Protection\n2 Years Warranty']</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Unusual date format: July 1, 2024; Could not verify totals calculation</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>8</v>
+      </c>
+      <c r="R3" t="n">
+        <v>9</v>
+      </c>
+      <c r="S3" t="n">
+        <v>8</v>
+      </c>
+      <c r="T3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Data-IN-OUT/02. Structurare TXT to XLSX/2.structured_extract.xlsx
+++ b/Data-IN-OUT/02. Structurare TXT to XLSX/2.structured_extract.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,7 +568,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>RON</t>
+          <t>LEI</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -580,11 +580,11 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>['Intocmire lista cantitati - Pasaj superior peste CF Port Constanţa']</t>
+          <t>['Intocmire lista cantitati - Pasaj superior peste CF Port Constanța']</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>86.25</v>
+        <v>83.75</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P2" t="n">
         <v>10</v>
@@ -614,86 +614,6 @@
       </c>
       <c r="U2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <f>HYPERLINK("C:\Users\tymyp\Desktop\Coduri-Cursor\workflow.procesare.ok\App.Simpla\Data-IN-OUT\01. Gemini OCR PDF to TXT\IN\PTSI SI 25342.pdf", "PTSI SI 25342.pdf")</f>
-        <v/>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>PTSI SI 25342_ocr</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>25342</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>July 1, 2024</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>PRODUCTIVITY TECHNOLOGIES SERVICES (PTSI), INC.</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2992000</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2.671,428.57</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>320571.43</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>['Legion Slim 5-14APH8 (82750043PH) 107,321 43 2146,428 57\nAMD Ryzen™ 9794CHS (807167,407520Hz, 8MB L2710MB L3)\nNMDIWD GeForce RTX 1060 8GB GDDR6, Boost Clock, 2370ΜΗΣ TOP 105W\nAMD SoC Platfonn\n18GG Suidered LPDDR5A-0400\nMemory soldered to systemboard, no slots\n16/38 soldered memory, not upgradable\nITB SSD M 22280 PCIe@ 4 0x4 NVMed', 'Workstation TS P3_Tower_W630_ES_R 121,600 436,70571\nPhilippines\nStandard Image (Prelead)\nWindows 11 Pro 64\nWindows 11 Pro 64 English\nTower 1100W 92% Adapter\n13th Generation Intel® Core™ 19-13900 vPro® Processor (E-cores up to 4.20 GHz P-cores up to 5.20 GHz)', 'Eaton 5A 2200I-NEMA 2200VA 1200W 9.553.57 38.214 29\nSpecs\nGNEMA Universal Socket\nLine Interactive | with AVR\nCircuit Breaker Protection\n2 Years Warranty']</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>91.25</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Unusual date format: July 1, 2024; Could not verify totals calculation</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>9</v>
-      </c>
-      <c r="O3" t="n">
-        <v>10</v>
-      </c>
-      <c r="P3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>8</v>
-      </c>
-      <c r="R3" t="n">
-        <v>9</v>
-      </c>
-      <c r="S3" t="n">
-        <v>8</v>
-      </c>
-      <c r="T3" t="n">
-        <v>10</v>
-      </c>
-      <c r="U3" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Data-IN-OUT/02. Structurare TXT to XLSX/2.structured_extract.xlsx
+++ b/Data-IN-OUT/02. Structurare TXT to XLSX/2.structured_extract.xlsx
@@ -568,7 +568,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>LEI</t>
+          <t>RON</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>83.75</v>
+        <v>85</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P2" t="n">
         <v>10</v>

--- a/Data-IN-OUT/02. Structurare TXT to XLSX/2.structured_extract.xlsx
+++ b/Data-IN-OUT/02. Structurare TXT to XLSX/2.structured_extract.xlsx
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <f>HYPERLINK("C:\Users\tymyp\Desktop\Coduri-Cursor\workflow.procesare.ok\App.Simpla\Data-IN-OUT\01. Gemini OCR PDF to TXT\IN\Factura GEN 0002  10.10.2024.pdf", "Factura GEN 0002  10.10.2024.pdf")</f>
+        <f>HYPERLINK("c:\Users\tymyp\Desktop\Coduri-Cursor\workflow.procesare.ok\App.Simpla\Data-IN-OUT\01. Gemini OCR PDF to TXT\IN\Factura GEN 0002  10.10.2024.pdf", "Factura GEN 0002  10.10.2024.pdf")</f>
         <v/>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>85</v>
+        <v>86.25</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
         <v>10</v>
       </c>
       <c r="Q2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R2" t="n">
         <v>10</v>

--- a/Data-IN-OUT/02. Structurare TXT to XLSX/2.structured_extract.xlsx
+++ b/Data-IN-OUT/02. Structurare TXT to XLSX/2.structured_extract.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,28 +542,28 @@
     </row>
     <row r="2">
       <c r="A2">
-        <f>HYPERLINK("c:\Users\tymyp\Desktop\Coduri-Cursor\workflow.procesare.ok\App.Simpla\Data-IN-OUT\01. Gemini OCR PDF to TXT\IN\Factura GEN 0002  10.10.2024.pdf", "Factura GEN 0002  10.10.2024.pdf")</f>
+        <f>HYPERLINK("C:\Users\tymyp\Desktop\Coduri-Cursor\workflow.procesare.ok\App.Simpla\Data-IN-OUT\01. Gemini OCR PDF to TXT\IN\ALL - GENERATING S.R.L._17306510_ALL10156_4458260054.pdf", "ALL - GENERATING S.R.L._17306510_ALL10156_4458260054.pdf")</f>
         <v/>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Factura GEN 0002  10.10.2024_ocr</t>
+          <t>ALL - GENERATING S.R.L._17306510_ALL10156_4458260054_ocr</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>GEN 0002</t>
+          <t>ALL10156</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.10.2024</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>GEN OPERATIONS S.R.L.</t>
+          <t>ALL - GENERATING S.R.L.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -572,23 +572,25 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1500</v>
+        <v>13197.59</v>
       </c>
       <c r="I2" t="n">
-        <v>1500</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>11090.41</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2107.18</v>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>['Intocmire lista cantitati - Pasaj superior peste CF Port Constanța']</t>
+          <t>['Chirie grup electrogen HRYW17T5 B190 SN 211007735\nPerioada facturata: 01-30.09.2024\n500 EURO fara TVA/luna', 'Chirie grup electrogen HRFW100T5 B70 SN 171005644\nPerioada facturata: 01-30.09.2024\n1100 Euro fara TVA/luna', 'Chirie grup electrogen HRYW17T5 B188 SN 211007733\nPerioada facturata: 01-30.09.2024\n500 EURO fara TVA/luna', 'Chirie grup electrogen HRYW-45 B222 SN 221007167\nPerioada facturata: 24-30.09.2024\n550 Euro fara TVA/luna']</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>86.25</v>
+        <v>98.75</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Unusual date format: 10.10.2024; Could not verify totals calculation</t>
+          <t>No issues</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -613,6 +615,158 @@
         <v>10</v>
       </c>
       <c r="U2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <f>HYPERLINK("C:\Users\tymyp\Desktop\Coduri-Cursor\workflow.procesare.ok\App.Simpla\Data-IN-OUT\01. Gemini OCR PDF to TXT\IN\Factura GEN 0002  10.10.2024.pdf", "Factura GEN 0002  10.10.2024.pdf")</f>
+        <v/>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Factura GEN 0002  10.10.2024_ocr</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>GEN 0002</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10.10.2024</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>GEN OPERATIONS S.R.L.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>RON</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>['Intocmire lista cantitati - Pasaj superior peste CF Port Constanța']</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>85</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Unusual date format: 10.10.2024; Could not verify totals calculation</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>9</v>
+      </c>
+      <c r="R3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="n">
+        <v>9</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <f>HYPERLINK("C:\Users\tymyp\Desktop\Coduri-Cursor\workflow.procesare.ok\App.Simpla\Data-IN-OUT\01. Gemini OCR PDF to TXT\IN\Factura GEN 0005  26.11.2024.pdf", "Factura GEN 0005  26.11.2024.pdf")</f>
+        <v/>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Factura GEN 0005  26.11.2024_ocr</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>GEN 0005</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.11.2024</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>GEN OPERATIONS S.R.L.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>RON</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3450</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3450</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>['Intocmire si calcul liste de cantitati\nPod DN54 km 64+001 si Pasaj peste\nAO']</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>86.25</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Unusual date format: 26.11.2024; Could not verify totals calculation</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>9</v>
+      </c>
+      <c r="R4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U4" t="n">
         <v>0</v>
       </c>
     </row>
